--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
@@ -489,28 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.6603092772102132</v>
+        <v>-0.1340702663479956</v>
       </c>
       <c r="C2">
-        <v>-0.1340702663479956</v>
+        <v>-0.2758992130872696</v>
       </c>
       <c r="D2">
-        <v>-0.2758992130872696</v>
+        <v>0.3670754083147943</v>
       </c>
       <c r="E2">
-        <v>0.3670754083147943</v>
+        <v>0.4914881146443768</v>
       </c>
       <c r="F2">
-        <v>0.4914881146443768</v>
+        <v>0.09385790860675949</v>
       </c>
       <c r="G2">
-        <v>0.09385790860675949</v>
+        <v>0.01768919490591373</v>
       </c>
       <c r="H2">
-        <v>0.01768919490591373</v>
+        <v>0.2940112530288354</v>
       </c>
       <c r="I2">
-        <v>0.2940112530288354</v>
+        <v>0.1227914307171113</v>
+      </c>
+      <c r="J2">
+        <v>0.2759388362258526</v>
+      </c>
+      <c r="K2">
+        <v>-0.001489938197266189</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.15162438770796</v>
+        <v>-0.293453334447234</v>
       </c>
       <c r="C3">
-        <v>-0.293453334447234</v>
+        <v>0.3495212869548299</v>
       </c>
       <c r="D3">
-        <v>0.3495212869548299</v>
+        <v>0.4739339932844123</v>
       </c>
       <c r="E3">
-        <v>0.4739339932844123</v>
+        <v>0.07630378724679503</v>
       </c>
       <c r="F3">
-        <v>0.07630378724679503</v>
+        <v>0.0001350735459492769</v>
       </c>
       <c r="G3">
-        <v>0.0001350735459492769</v>
+        <v>0.2764571316688709</v>
       </c>
       <c r="H3">
-        <v>0.2764571316688709</v>
+        <v>0.1052373093571469</v>
+      </c>
+      <c r="I3">
+        <v>0.2583847148658881</v>
+      </c>
+      <c r="J3">
+        <v>-0.01904405955723064</v>
+      </c>
+      <c r="K3">
+        <v>-0.182031752916177</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.2053460154962278</v>
+        <v>0.4376286059058361</v>
       </c>
       <c r="C4">
-        <v>0.4376286059058361</v>
+        <v>0.5620413122354185</v>
       </c>
       <c r="D4">
-        <v>0.5620413122354185</v>
+        <v>0.1644111061978012</v>
       </c>
       <c r="E4">
-        <v>0.1644111061978012</v>
+        <v>0.08824239249695551</v>
       </c>
       <c r="F4">
-        <v>0.08824239249695551</v>
+        <v>0.3645644506198771</v>
       </c>
       <c r="G4">
-        <v>0.3645644506198771</v>
+        <v>0.1933446283081531</v>
       </c>
       <c r="H4">
-        <v>0.1933446283081531</v>
+        <v>0.3464920338168943</v>
       </c>
       <c r="I4">
-        <v>0.3464920338168943</v>
+        <v>0.06906325939377558</v>
       </c>
       <c r="J4">
-        <v>0.06906325939377558</v>
+        <v>-0.09392443396517081</v>
       </c>
       <c r="K4">
-        <v>-0.09392443396517081</v>
+        <v>-0.2180070093596886</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.6162032393936197</v>
+        <v>0.7406159457232021</v>
       </c>
       <c r="C5">
-        <v>0.7406159457232021</v>
+        <v>0.3429857396855849</v>
       </c>
       <c r="D5">
-        <v>0.3429857396855849</v>
+        <v>0.2668170259847391</v>
       </c>
       <c r="E5">
-        <v>0.2668170259847391</v>
+        <v>0.5431390841076607</v>
       </c>
       <c r="F5">
-        <v>0.5431390841076607</v>
+        <v>0.3719192617959367</v>
       </c>
       <c r="G5">
-        <v>0.3719192617959367</v>
+        <v>0.525066667304678</v>
       </c>
       <c r="H5">
-        <v>0.525066667304678</v>
+        <v>0.2476378928815592</v>
       </c>
       <c r="I5">
-        <v>0.2476378928815592</v>
+        <v>0.0846501995226128</v>
       </c>
       <c r="J5">
-        <v>0.0846501995226128</v>
+        <v>-0.03943237587190501</v>
+      </c>
+      <c r="K5">
+        <v>0.4767206611340558</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.652643173475852</v>
+        <v>1.255012967438235</v>
       </c>
       <c r="C6">
-        <v>1.255012967438235</v>
+        <v>1.178844253737389</v>
       </c>
       <c r="D6">
+        <v>1.455166311860311</v>
+      </c>
+      <c r="E6">
+        <v>1.283946489548587</v>
+      </c>
+      <c r="F6">
+        <v>1.437093895057328</v>
+      </c>
+      <c r="G6">
+        <v>1.159665120634209</v>
+      </c>
+      <c r="H6">
+        <v>0.9966774272752628</v>
+      </c>
+      <c r="I6">
+        <v>0.8725948518807449</v>
+      </c>
+      <c r="J6">
+        <v>1.388747888886706</v>
+      </c>
+      <c r="K6">
         <v>1.178844253737389</v>
-      </c>
-      <c r="E6">
-        <v>1.455166311860311</v>
-      </c>
-      <c r="F6">
-        <v>1.283946489548587</v>
-      </c>
-      <c r="G6">
-        <v>1.437093895057328</v>
-      </c>
-      <c r="H6">
-        <v>1.159665120634209</v>
-      </c>
-      <c r="I6">
-        <v>0.9966774272752628</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3110387314724781</v>
+        <v>0.2348700177716323</v>
       </c>
       <c r="C7">
+        <v>0.5111920758945538</v>
+      </c>
+      <c r="D7">
+        <v>0.3399722535828299</v>
+      </c>
+      <c r="E7">
+        <v>0.4931196590915711</v>
+      </c>
+      <c r="F7">
+        <v>0.2156908846684524</v>
+      </c>
+      <c r="G7">
+        <v>0.05270319130950599</v>
+      </c>
+      <c r="H7">
+        <v>-0.07137938408501182</v>
+      </c>
+      <c r="I7">
+        <v>0.444773652920949</v>
+      </c>
+      <c r="J7">
         <v>0.2348700177716323</v>
-      </c>
-      <c r="D7">
-        <v>0.5111920758945538</v>
-      </c>
-      <c r="E7">
-        <v>0.3399722535828299</v>
-      </c>
-      <c r="F7">
-        <v>0.4931196590915711</v>
-      </c>
-      <c r="G7">
-        <v>0.2156908846684524</v>
-      </c>
-      <c r="H7">
-        <v>0.05270319130950599</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,30 +696,27 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.2388379152847414</v>
+        <v>0.5151599734076631</v>
       </c>
       <c r="C8">
-        <v>0.5151599734076631</v>
+        <v>0.343940151095939</v>
       </c>
       <c r="D8">
-        <v>0.343940151095939</v>
+        <v>0.4970875566046802</v>
       </c>
       <c r="E8">
-        <v>0.4970875566046802</v>
+        <v>0.2196587821815615</v>
       </c>
       <c r="F8">
-        <v>0.2196587821815615</v>
+        <v>0.0566710888226151</v>
       </c>
       <c r="G8">
-        <v>0.0566710888226151</v>
+        <v>-0.06741148657190271</v>
       </c>
       <c r="H8">
-        <v>-0.06741148657190271</v>
+        <v>0.4487415504340581</v>
       </c>
       <c r="I8">
-        <v>0.4487415504340581</v>
-      </c>
-      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -698,27 +725,24 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.6508000635779043</v>
+        <v>0.4795802412661804</v>
       </c>
       <c r="C9">
-        <v>0.4795802412661804</v>
+        <v>0.6327276467749217</v>
       </c>
       <c r="D9">
-        <v>0.6327276467749217</v>
+        <v>0.3552988723518029</v>
       </c>
       <c r="E9">
-        <v>0.3552988723518029</v>
+        <v>0.1923111789928565</v>
       </c>
       <c r="F9">
-        <v>0.1923111789928565</v>
+        <v>0.06822860359833866</v>
       </c>
       <c r="G9">
-        <v>0.06822860359833866</v>
+        <v>0.5843816406042994</v>
       </c>
       <c r="H9">
-        <v>0.5843816406042994</v>
-      </c>
-      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -727,24 +751,21 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2387740594105157</v>
+        <v>0.3919214649192569</v>
       </c>
       <c r="C10">
-        <v>0.3919214649192569</v>
+        <v>0.1144926904961382</v>
       </c>
       <c r="D10">
-        <v>0.1144926904961382</v>
+        <v>-0.04849500286280822</v>
       </c>
       <c r="E10">
-        <v>-0.04849500286280822</v>
+        <v>-0.172577578257326</v>
       </c>
       <c r="F10">
-        <v>-0.172577578257326</v>
+        <v>0.3435754587486348</v>
       </c>
       <c r="G10">
-        <v>0.3435754587486348</v>
-      </c>
-      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -753,21 +774,18 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3465902496671606</v>
+        <v>0.0691614752440418</v>
       </c>
       <c r="C11">
-        <v>0.0691614752440418</v>
+        <v>-0.09382621811490459</v>
       </c>
       <c r="D11">
-        <v>-0.09382621811490459</v>
+        <v>-0.2179087935094224</v>
       </c>
       <c r="E11">
-        <v>-0.2179087935094224</v>
+        <v>0.2982442434965384</v>
       </c>
       <c r="F11">
-        <v>0.2982442434965384</v>
-      </c>
-      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -776,18 +794,15 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.00230005330798793</v>
+        <v>-0.1606876400509585</v>
       </c>
       <c r="C12">
-        <v>-0.1606876400509585</v>
+        <v>-0.2847702154454763</v>
       </c>
       <c r="D12">
-        <v>-0.2847702154454763</v>
+        <v>0.2313828215604846</v>
       </c>
       <c r="E12">
-        <v>0.2313828215604846</v>
-      </c>
-      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -796,15 +811,12 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.1902738424076751</v>
+        <v>-0.3143564178021929</v>
       </c>
       <c r="C13">
-        <v>-0.3143564178021929</v>
+        <v>0.201796619203768</v>
       </c>
       <c r="D13">
-        <v>0.201796619203768</v>
-      </c>
-      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -813,12 +825,9 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.3325070745318338</v>
+        <v>0.1836459624741271</v>
       </c>
       <c r="C14">
-        <v>0.1836459624741271</v>
-      </c>
-      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -827,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1656141382254278</v>
-      </c>
-      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.6603092772102132</v>
+      </c>
+      <c r="C2">
         <v>-0.1340702663479956</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-0.2758992130872696</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.3670754083147943</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.4914881146443768</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.09385790860675949</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.01768919490591373</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.2940112530288354</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1227914307171113</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.2759388362258526</v>
-      </c>
-      <c r="K2">
-        <v>-0.001489938197266189</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>-0.15162438770796</v>
+      </c>
+      <c r="C3">
         <v>-0.293453334447234</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3495212869548299</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4739339932844123</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.07630378724679503</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0001350735459492769</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2764571316688709</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1052373093571469</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2583847148658881</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.01904405955723064</v>
-      </c>
-      <c r="K3">
-        <v>-0.182031752916177</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>-0.2053460154962278</v>
+      </c>
+      <c r="C4">
         <v>0.4376286059058361</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.5620413122354185</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1644111061978012</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.08824239249695551</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3645644506198771</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.1933446283081531</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.3464920338168943</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.06906325939377558</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.09392443396517081</v>
-      </c>
-      <c r="K4">
-        <v>-0.2180070093596886</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.6162032393936197</v>
+      </c>
+      <c r="C5">
         <v>0.7406159457232021</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3429857396855849</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2668170259847391</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.5431390841076607</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.3719192617959367</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.525066667304678</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.2476378928815592</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0846501995226128</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.03943237587190501</v>
-      </c>
-      <c r="K5">
-        <v>0.4767206611340558</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.652643173475852</v>
+      </c>
+      <c r="C6">
         <v>1.255012967438235</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.178844253737389</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.455166311860311</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.283946489548587</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.437093895057328</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.159665120634209</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9966774272752628</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.8725948518807449</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.388747888886706</v>
-      </c>
-      <c r="K6">
-        <v>1.178844253737389</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,30 +664,33 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>0.3110387314724781</v>
+      </c>
+      <c r="C7">
         <v>0.2348700177716323</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5111920758945538</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3399722535828299</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4931196590915711</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2156908846684524</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.05270319130950599</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.07137938408501182</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.444773652920949</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.2348700177716323</v>
       </c>
     </row>
@@ -696,27 +699,30 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.2388379152847414</v>
+      </c>
+      <c r="C8">
         <v>0.5151599734076631</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.343940151095939</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4970875566046802</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.2196587821815615</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0566710888226151</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.06741148657190271</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.4487415504340581</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.2388379152847414</v>
       </c>
     </row>
@@ -725,24 +731,27 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.6508000635779043</v>
+      </c>
+      <c r="C9">
         <v>0.4795802412661804</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.6327276467749217</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3552988723518029</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1923111789928565</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.06822860359833866</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.5843816406042994</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.3744780054549828</v>
       </c>
     </row>
@@ -751,21 +760,24 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.2387740594105157</v>
+      </c>
+      <c r="C10">
         <v>0.3919214649192569</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.1144926904961382</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.04849500286280822</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.172577578257326</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3435754587486348</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1336718235993181</v>
       </c>
     </row>
@@ -774,18 +786,21 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.3465902496671606</v>
+      </c>
+      <c r="C11">
         <v>0.0691614752440418</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.09382621811490459</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.2179087935094224</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.2982442434965384</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.08834060834722172</v>
       </c>
     </row>
@@ -794,15 +809,18 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.00230005330798793</v>
+      </c>
+      <c r="C12">
         <v>-0.1606876400509585</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.2847702154454763</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2313828215604846</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.02147918641116785</v>
       </c>
     </row>
@@ -811,12 +829,15 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.1902738424076751</v>
+      </c>
+      <c r="C13">
         <v>-0.3143564178021929</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.201796619203768</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.00810701594554874</v>
       </c>
     </row>
@@ -825,9 +846,12 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.3325070745318338</v>
+      </c>
+      <c r="C14">
         <v>0.1836459624741271</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.02625767267518964</v>
       </c>
     </row>
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.1656141382254278</v>
+      </c>
+      <c r="C15">
         <v>-0.04428949692388896</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.09587373626955231</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
@@ -512,12 +512,6 @@
       <c r="I2">
         <v>0.2940112530288354</v>
       </c>
-      <c r="J2">
-        <v>0.1227914307171113</v>
-      </c>
-      <c r="K2">
-        <v>0.2759388362258526</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -544,15 +538,6 @@
       <c r="H3">
         <v>0.2764571316688709</v>
       </c>
-      <c r="I3">
-        <v>0.1052373093571469</v>
-      </c>
-      <c r="J3">
-        <v>0.2583847148658881</v>
-      </c>
-      <c r="K3">
-        <v>-0.01904405955723064</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -620,9 +605,6 @@
       <c r="J5">
         <v>0.0846501995226128</v>
       </c>
-      <c r="K5">
-        <v>-0.03943237587190501</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -652,12 +634,6 @@
       <c r="I6">
         <v>0.9966774272752628</v>
       </c>
-      <c r="J6">
-        <v>0.8725948518807449</v>
-      </c>
-      <c r="K6">
-        <v>1.388747888886706</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -683,15 +659,6 @@
       </c>
       <c r="H7">
         <v>0.05270319130950599</v>
-      </c>
-      <c r="I7">
-        <v>-0.07137938408501182</v>
-      </c>
-      <c r="J7">
-        <v>0.444773652920949</v>
-      </c>
-      <c r="K7">
-        <v>0.2348700177716323</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series_20221_21001/AVERAGE_10_9_qoq_errors_latest_eval_20221_21001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Q0</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,6 +844,11 @@
         <v>-0.09587373626955231</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
